--- a/xserv.xlsx
+++ b/xserv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Google Drive\Uninorte\Uninorte-docencia\bookdown\intro_eco_col\int_eco_co_notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9688E3-0D96-4387-990A-BC6AFC824544}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31C632-948A-4315-813D-776929FE37D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F302AB-6469-45E0-B262-E62056705194}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -585,7 +585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="13">
         <v>2007</v>
       </c>
@@ -604,8 +604,20 @@
       <c r="F2">
         <v>32897</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>B2/C2</f>
+        <v>0.13000566836717681</v>
+      </c>
+      <c r="H2">
+        <f>B2/D2</f>
+        <v>0.21170657544659824</v>
+      </c>
+      <c r="I2">
+        <f>E2/F2</f>
+        <v>0.20521628111985896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13">
         <v>2008</v>
       </c>
@@ -624,8 +636,20 @@
       <c r="F3">
         <v>39669</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="0">B3/C3</f>
+        <v>0.1197044596821347</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="1">B3/D3</f>
+        <v>0.23004239235916032</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="2">E3/F3</f>
+        <v>0.19743376440041341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="13">
         <v>2009</v>
       </c>
@@ -644,8 +668,20 @@
       <c r="F4">
         <v>32898</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.13721730131190454</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.27227154677779791</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.24065292722961881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="13">
         <v>2010</v>
       </c>
@@ -664,8 +700,20 @@
       <c r="F5">
         <v>40486</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.12668395739430413</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.30426368309646207</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.23598280887220274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="13">
         <v>2011</v>
       </c>
@@ -684,8 +732,20 @@
       <c r="F6">
         <v>54233</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9.7531406483352373E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.28082157130571156</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.20382423985396345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="13">
         <v>2012</v>
       </c>
@@ -704,8 +764,20 @@
       <c r="F7">
         <v>59048</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.10566320166320166</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.31988922457200403</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.21098089689743937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="13">
         <v>2013</v>
       </c>
@@ -724,8 +796,20 @@
       <c r="F8">
         <v>59397</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.11789405684754523</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.36720321931589539</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.22302473188881594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13">
         <v>2014</v>
       </c>
@@ -744,8 +828,20 @@
       <c r="F9">
         <v>64029</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.12884408553147275</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.38530309638028781</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.2225866404285558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="13">
         <v>2015</v>
       </c>
@@ -764,8 +860,20 @@
       <c r="F10">
         <v>54058</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.2054859768569107</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.44719512195121952</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.22364867364682378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="13">
         <v>2016</v>
       </c>
@@ -784,8 +892,20 @@
       <c r="F11">
         <v>44889</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.24041943508517807</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.45855855855855854</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.2485686916616543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="13">
         <v>2017</v>
       </c>
@@ -804,8 +924,20 @@
       <c r="F12">
         <v>46076</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.22511315283085345</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.51974219385520304</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.26690684955291261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="13">
         <v>2018</v>
       </c>
@@ -824,8 +956,20 @@
       <c r="F13">
         <v>51233</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.22691147603772682</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.55549695264885135</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.26102316866082409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="13">
         <v>2019</v>
       </c>
@@ -844,8 +988,20 @@
       <c r="F14">
         <v>52703</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.24766390640431513</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.55956059045657403</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.26110468094795364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="13">
         <v>2020</v>
       </c>
